--- a/docs/events.xlsx
+++ b/docs/events.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saiem 70\Desktop\Summer 2021 projects\DIFA\R_codes\hello_world\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1C7890-3BB0-4663-B0A7-12E9C56E0B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6654BD82-921B-4C8C-815F-A25389A360DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>[Tim Beatty](https://are.ucdavis.edu/people/faculty/tim-beatty/)</t>
   </si>
   <si>
-    <t>[Julia Lane](https://wagner.nyu.edu/community/faculty/julia-lane)</t>
-  </si>
-  <si>
     <t>[Julia Lane](https://wagner.nyu.edu/community/faculty/julia-lane), [Jason Owen-Smith](https://lsa.umich.edu/soc/people/faculty/jdos.html)</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>Closing from the FAMPS and FSN Chairs; Preview of Day 2</t>
+  </si>
+  <si>
+    <t>[Julia Lane](https://dataifa.github.io/difa-project/julia_lane.html)</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +511,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -531,7 +531,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -574,7 +574,7 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -594,7 +594,7 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -614,7 +614,7 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -654,7 +654,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -674,7 +674,7 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -691,7 +691,7 @@
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>

--- a/docs/events.xlsx
+++ b/docs/events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6654BD82-921B-4C8C-815F-A25389A360DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B83ABE-8F6E-4DD4-851F-7FA212391D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="58380" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,15 +132,6 @@
     <t>[Lauren Chenarides](https://wpcarey.asu.edu/people/profile/3153292), [Drew Hanks](https://ehe.osu.edu/human-sciences/directory?id=hanks.46)</t>
   </si>
   <si>
-    <t>[Tim Beatty](https://are.ucdavis.edu/people/faculty/tim-beatty/)</t>
-  </si>
-  <si>
-    <t>[Julia Lane](https://wagner.nyu.edu/community/faculty/julia-lane), [Jason Owen-Smith](https://lsa.umich.edu/soc/people/faculty/jdos.html)</t>
-  </si>
-  <si>
-    <t>[Jason Owen-Smith](https://lsa.umich.edu/soc/people/faculty/jdos.html)</t>
-  </si>
-  <si>
     <t>[Andi Carlson](https://www.ers.usda.gov/authors/ers-staff-directory/andrea-carlson/)</t>
   </si>
   <si>
@@ -157,6 +148,15 @@
   </si>
   <si>
     <t>[Julia Lane](https://dataifa.github.io/difa-project/julia_lane.html)</t>
+  </si>
+  <si>
+    <t>[Julia Lane](https://dataifa.github.io/difa-project/julia_lane.html), [Jason Owen-Smith](https://dataifa.github.io/difa-project/jason_owensmith.html)</t>
+  </si>
+  <si>
+    <t>[Jason Owen-Smith](https://dataifa.github.io/difa-project/jason_owensmith.html)</t>
+  </si>
+  <si>
+    <t>[Tim Beatty](https://dataifa.github.io/difa-project/timothy_beatty.html)</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +511,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -531,7 +531,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -554,7 +554,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -574,7 +574,7 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -594,7 +594,7 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -614,7 +614,7 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -654,7 +654,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -674,7 +674,7 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -691,7 +691,7 @@
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>

--- a/docs/events.xlsx
+++ b/docs/events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B83ABE-8F6E-4DD4-851F-7FA212391D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBE8358-1BB4-46DC-8497-BF7D352EB450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58380" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,12 +129,6 @@
     <t>60 minutes</t>
   </si>
   <si>
-    <t>[Lauren Chenarides](https://wpcarey.asu.edu/people/profile/3153292), [Drew Hanks](https://ehe.osu.edu/human-sciences/directory?id=hanks.46)</t>
-  </si>
-  <si>
-    <t>[Andi Carlson](https://www.ers.usda.gov/authors/ers-staff-directory/andrea-carlson/)</t>
-  </si>
-  <si>
     <t>[Ayaz Hyder](https://cph.osu.edu/people/ahyder), [Charlotte Ambrozek](https://are.ucdavis.edu/people/grad-students/phd/charlotte-ambrozek/)</t>
   </si>
   <si>
@@ -157,6 +151,12 @@
   </si>
   <si>
     <t>[Tim Beatty](https://dataifa.github.io/difa-project/timothy_beatty.html)</t>
+  </si>
+  <si>
+    <t>[Lauren Chenarides](https://dataifa.github.io/difa-project/Leadership_team.html), [Drew Hanks](https://dataifa.github.io/difa-project/Leadership_team.html)</t>
+  </si>
+  <si>
+    <t>[Andi Carlson](https://dataifa.github.io/difa-project/Leadership_team.html)</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +511,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -531,10 +531,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -554,7 +554,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -574,7 +574,7 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -594,7 +594,7 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -614,7 +614,7 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -654,7 +654,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -674,7 +674,7 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -691,10 +691,10 @@
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/docs/events.xlsx
+++ b/docs/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBE8358-1BB4-46DC-8497-BF7D352EB450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FC6EDB-C751-4A76-875A-D40E19154301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,10 +153,10 @@
     <t>[Tim Beatty](https://dataifa.github.io/difa-project/timothy_beatty.html)</t>
   </si>
   <si>
-    <t>[Lauren Chenarides](https://dataifa.github.io/difa-project/Leadership_team.html), [Drew Hanks](https://dataifa.github.io/difa-project/Leadership_team.html)</t>
-  </si>
-  <si>
-    <t>[Andi Carlson](https://dataifa.github.io/difa-project/Leadership_team.html)</t>
+    <t>[Lauren Chenarides](https://dataifa.github.io/difa-project/lauren_chenarides.html), [Drew Hanks](https://dataifa.github.io/difa-project/drew_hanks.html)</t>
+  </si>
+  <si>
+    <t>[Andi Carlson](https://dataifa.github.io/difa-project/andi_carlson.html)</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/events.xlsx
+++ b/docs/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FC6EDB-C751-4A76-875A-D40E19154301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43136262-0039-43D4-B8D4-B489B8284AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/events.xlsx
+++ b/docs/events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43136262-0039-43D4-B8D4-B489B8284AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097D922D-9A87-4880-A320-F8508477ACED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33240" yWindow="2025" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/docs/events.xlsx
+++ b/docs/events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097D922D-9A87-4880-A320-F8508477ACED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1E76BB-18C5-49CB-80CA-BD0C830A436C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33240" yWindow="2025" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15240" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,9 +129,6 @@
     <t>60 minutes</t>
   </si>
   <si>
-    <t>[Ayaz Hyder](https://cph.osu.edu/people/ahyder), [Charlotte Ambrozek](https://are.ucdavis.edu/people/grad-students/phd/charlotte-ambrozek/)</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>[Andi Carlson](https://dataifa.github.io/difa-project/andi_carlson.html)</t>
+  </si>
+  <si>
+    <t>[Ayaz Hyder](https://dataifa.github.io/difa-project/comingsoon.html), [Charlotte Ambrozek](https://dataifa.github.io/difa-project/comingsoon.html)</t>
   </si>
 </sst>
 </file>
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +511,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -531,10 +531,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -554,7 +554,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -574,7 +574,7 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -594,7 +594,7 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -614,7 +614,7 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -654,7 +654,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -674,7 +674,7 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -691,10 +691,10 @@
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/docs/events.xlsx
+++ b/docs/events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1E76BB-18C5-49CB-80CA-BD0C830A436C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CC0961-B44E-431E-821E-498DF0D48782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15240" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
     <t>[Andi Carlson](https://dataifa.github.io/difa-project/andi_carlson.html)</t>
   </si>
   <si>
-    <t>[Ayaz Hyder](https://dataifa.github.io/difa-project/comingsoon.html), [Charlotte Ambrozek](https://dataifa.github.io/difa-project/comingsoon.html)</t>
+    <t>[Ayaz Hyder](https://dataifa.github.io/difa-project/ayaz_hyder.html), [Charlotte Ambrozek](https://dataifa.github.io/difa-project/comingsoon.html)</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/events.xlsx
+++ b/docs/events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CC0961-B44E-431E-821E-498DF0D48782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3876AC5E-0B62-4443-851E-05C5D6E96B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30870" yWindow="2280" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
     <t>[Andi Carlson](https://dataifa.github.io/difa-project/andi_carlson.html)</t>
   </si>
   <si>
-    <t>[Ayaz Hyder](https://dataifa.github.io/difa-project/ayaz_hyder.html), [Charlotte Ambrozek](https://dataifa.github.io/difa-project/comingsoon.html)</t>
+    <t>[Ayaz Hyder](https://dataifa.github.io/difa-project/ayaz_hyder.html), [Charlotte Ambrozek](https://dataifa.github.io/difa-project/charlotte_ambrozek.html)</t>
   </si>
 </sst>
 </file>

--- a/docs/events.xlsx
+++ b/docs/events.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3876AC5E-0B62-4443-851E-05C5D6E96B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5573CA-D40F-446F-8F18-ACDDAE42A374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30870" yWindow="2280" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="135" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>Start Time</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>[Ayaz Hyder](https://dataifa.github.io/difa-project/ayaz_hyder.html), [Charlotte Ambrozek](https://dataifa.github.io/difa-project/charlotte_ambrozek.html)</t>
+  </si>
+  <si>
+    <t>[Lauren Chenarides](https://www.youtube.com/watch?v=cjhrjQTeaq0), [Drew Hanks](https://www.youtube.com/watch?v=cjhrjQTeaq0)</t>
   </si>
 </sst>
 </file>
@@ -484,7 +487,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,7 +537,7 @@
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">

--- a/docs/events.xlsx
+++ b/docs/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5573CA-D40F-446F-8F18-ACDDAE42A374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFFBDB4-370D-4CD2-B21D-C1632BEBCE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="135" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Start Time</t>
   </si>
@@ -57,12 +57,6 @@
     <t>Methods for linking administrative data</t>
   </si>
   <si>
-    <t>Q&amp;A Session</t>
-  </si>
-  <si>
-    <t>Q&amp;A: Methods for linking administrative data</t>
-  </si>
-  <si>
     <t>Session 2</t>
   </si>
   <si>
@@ -138,28 +132,25 @@
     <t>Closing from the FAMPS and FSN Chairs; Preview of Day 2</t>
   </si>
   <si>
-    <t>[Julia Lane](https://dataifa.github.io/difa-project/julia_lane.html)</t>
-  </si>
-  <si>
-    <t>[Julia Lane](https://dataifa.github.io/difa-project/julia_lane.html), [Jason Owen-Smith](https://dataifa.github.io/difa-project/jason_owensmith.html)</t>
-  </si>
-  <si>
-    <t>[Jason Owen-Smith](https://dataifa.github.io/difa-project/jason_owensmith.html)</t>
-  </si>
-  <si>
-    <t>[Tim Beatty](https://dataifa.github.io/difa-project/timothy_beatty.html)</t>
-  </si>
-  <si>
     <t>[Lauren Chenarides](https://dataifa.github.io/difa-project/lauren_chenarides.html), [Drew Hanks](https://dataifa.github.io/difa-project/drew_hanks.html)</t>
   </si>
   <si>
-    <t>[Andi Carlson](https://dataifa.github.io/difa-project/andi_carlson.html)</t>
-  </si>
-  <si>
-    <t>[Ayaz Hyder](https://dataifa.github.io/difa-project/ayaz_hyder.html), [Charlotte Ambrozek](https://dataifa.github.io/difa-project/charlotte_ambrozek.html)</t>
-  </si>
-  <si>
     <t>[Lauren Chenarides](https://www.youtube.com/watch?v=cjhrjQTeaq0), [Drew Hanks](https://www.youtube.com/watch?v=cjhrjQTeaq0)</t>
+  </si>
+  <si>
+    <t>[Tim Beatty](https://www.youtube.com/watch?v=NDuzX3wuIQw)</t>
+  </si>
+  <si>
+    <t>[Julia Lane](https://www.youtube.com/watch?v=5jJfv0RzP44)</t>
+  </si>
+  <si>
+    <t>[Jason Owen-Smith](https://www.youtube.com/watch?v=p0lTVB4gQkE)</t>
+  </si>
+  <si>
+    <t>[Andi Carlson](https://www.youtube.com/watch?v=-_zdr6SRAQU)</t>
+  </si>
+  <si>
+    <t>[Ayaz Hyder](https://www.youtube.com/watch?v=bPcZ-QW78Pw), [Charlotte Ambrozek](https://www.youtube.com/watch?v=8Jw-jFjcFkE)</t>
   </si>
 </sst>
 </file>
@@ -484,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,13 +499,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -525,30 +516,30 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -557,18 +548,18 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -577,18 +568,18 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -597,15 +588,15 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>30</v>
@@ -614,38 +605,38 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>31</v>
@@ -657,47 +648,27 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/events.xlsx
+++ b/docs/events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFFBDB4-370D-4CD2-B21D-C1632BEBCE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334FBB5F-B6AA-457A-8676-A9D11BB4BFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="135" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31005" yWindow="2025" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,9 +126,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Greetings from the FAMPS and FSN Chairs</t>
-  </si>
-  <si>
     <t>Closing from the FAMPS and FSN Chairs; Preview of Day 2</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>[Ayaz Hyder](https://www.youtube.com/watch?v=bPcZ-QW78Pw), [Charlotte Ambrozek](https://www.youtube.com/watch?v=8Jw-jFjcFkE)</t>
+  </si>
+  <si>
+    <t>[Greetings from the FAMPS and FSN Chairs](https://www.youtube.com/watch?v=cjhrjQTeaq0)</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,10 +525,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -548,7 +548,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -568,7 +568,7 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -628,7 +628,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -648,7 +648,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -665,10 +665,10 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
         <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/events.xlsx
+++ b/docs/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334FBB5F-B6AA-457A-8676-A9D11BB4BFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36468C2-D892-485F-B6E4-BF2341E4291D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31005" yWindow="2025" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Start Time</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Session 1</t>
   </si>
   <si>
-    <t>Why should we care about data linkages?</t>
-  </si>
-  <si>
     <t>Keynote speaker</t>
   </si>
   <si>
@@ -132,12 +129,6 @@
     <t>[Lauren Chenarides](https://dataifa.github.io/difa-project/lauren_chenarides.html), [Drew Hanks](https://dataifa.github.io/difa-project/drew_hanks.html)</t>
   </si>
   <si>
-    <t>[Lauren Chenarides](https://www.youtube.com/watch?v=cjhrjQTeaq0), [Drew Hanks](https://www.youtube.com/watch?v=cjhrjQTeaq0)</t>
-  </si>
-  <si>
-    <t>[Tim Beatty](https://www.youtube.com/watch?v=NDuzX3wuIQw)</t>
-  </si>
-  <si>
     <t>[Julia Lane](https://www.youtube.com/watch?v=5jJfv0RzP44)</t>
   </si>
   <si>
@@ -151,6 +142,12 @@
   </si>
   <si>
     <t>[Greetings from the FAMPS and FSN Chairs](https://www.youtube.com/watch?v=cjhrjQTeaq0)</t>
+  </si>
+  <si>
+    <t>[Why should we care about data linkages?](https://www.youtube.com/watch?v=NDuzX3wuIQw)</t>
+  </si>
+  <si>
+    <t>[Tim Beatty](https://dataifa.github.io/difa-project/timothy_beatty.html)</t>
   </si>
 </sst>
 </file>
@@ -478,7 +475,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,13 +496,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -516,159 +513,159 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
         <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/docs/events.xlsx
+++ b/docs/events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36468C2-D892-485F-B6E4-BF2341E4291D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E62A8C-FD80-43D4-B581-71FFDBB9080E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31005" yWindow="2025" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31005" yWindow="2025" windowWidth="24255" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>Start Time</t>
   </si>
@@ -51,30 +51,18 @@
     <t>Keynote speaker</t>
   </si>
   <si>
-    <t>Methods for linking administrative data</t>
-  </si>
-  <si>
     <t>Session 2</t>
   </si>
   <si>
-    <t>Linking Administrative Data: The UMETRICS Experience</t>
-  </si>
-  <si>
     <t>Break</t>
   </si>
   <si>
     <t>Session 3</t>
   </si>
   <si>
-    <t>Developments in data linkages</t>
-  </si>
-  <si>
     <t>Session 4 (Research Presentations)</t>
   </si>
   <si>
-    <t>Frontiers in evidence-based policy making</t>
-  </si>
-  <si>
     <t>Day 1 Wrap-up</t>
   </si>
   <si>
@@ -117,9 +105,6 @@
     <t>15 minutes</t>
   </si>
   <si>
-    <t>60 minutes</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -129,18 +114,6 @@
     <t>[Lauren Chenarides](https://dataifa.github.io/difa-project/lauren_chenarides.html), [Drew Hanks](https://dataifa.github.io/difa-project/drew_hanks.html)</t>
   </si>
   <si>
-    <t>[Julia Lane](https://www.youtube.com/watch?v=5jJfv0RzP44)</t>
-  </si>
-  <si>
-    <t>[Jason Owen-Smith](https://www.youtube.com/watch?v=p0lTVB4gQkE)</t>
-  </si>
-  <si>
-    <t>[Andi Carlson](https://www.youtube.com/watch?v=-_zdr6SRAQU)</t>
-  </si>
-  <si>
-    <t>[Ayaz Hyder](https://www.youtube.com/watch?v=bPcZ-QW78Pw), [Charlotte Ambrozek](https://www.youtube.com/watch?v=8Jw-jFjcFkE)</t>
-  </si>
-  <si>
     <t>[Greetings from the FAMPS and FSN Chairs](https://www.youtube.com/watch?v=cjhrjQTeaq0)</t>
   </si>
   <si>
@@ -148,6 +121,39 @@
   </si>
   <si>
     <t>[Tim Beatty](https://dataifa.github.io/difa-project/timothy_beatty.html)</t>
+  </si>
+  <si>
+    <t>[Methods for linking administrative data](https://www.youtube.com/watch?v=5jJfv0RzP44)</t>
+  </si>
+  <si>
+    <t>[Julia Lane](https://dataifa.github.io/difa-project/julia_lane.html)</t>
+  </si>
+  <si>
+    <t>[Linking Administrative Data: The UMETRICS Experience](https://www.youtube.com/watch?v=p0lTVB4gQkE)</t>
+  </si>
+  <si>
+    <t>[Jason Owen-Smith](https://dataifa.github.io/difa-project/jason_owensmith.html)</t>
+  </si>
+  <si>
+    <t>4:15pm</t>
+  </si>
+  <si>
+    <t>[Developments in data linkages](https://www.youtube.com/watch?v=-_zdr6SRAQU)</t>
+  </si>
+  <si>
+    <t>[Frontiers in evidence-based policy making: COVID-19 and Schools](https://www.youtube.com/watch?v=bPcZ-QW78Pw)</t>
+  </si>
+  <si>
+    <t>[Andi Carlson](https://dataifa.github.io/difa-project/andi_carlson.html)</t>
+  </si>
+  <si>
+    <t>[Ayaz Hyder](https://dataifa.github.io/difa-project/ayaz_hyder.html)</t>
+  </si>
+  <si>
+    <t>[Charlotte Ambrozek]((https://dataifa.github.io/difa-project/charlotte_ambrozek.html))</t>
+  </si>
+  <si>
+    <t>[Evidence on WIC using administrative data linkage](https://www.youtube.com/watch?v=8Jw-jFjcFkE)</t>
   </si>
 </sst>
 </file>
@@ -472,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,13 +502,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -513,76 +519,76 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -590,82 +596,102 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/docs/events.xlsx
+++ b/docs/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E62A8C-FD80-43D4-B581-71FFDBB9080E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78A0466-A0B8-4F18-9062-324C35E167CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31005" yWindow="2025" windowWidth="24255" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,7 +481,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/events.xlsx
+++ b/docs/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78A0466-A0B8-4F18-9062-324C35E167CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F3EEF3-0DDF-4C0F-AF87-46D05BB4E5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31005" yWindow="2025" windowWidth="24255" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,10 +150,10 @@
     <t>[Ayaz Hyder](https://dataifa.github.io/difa-project/ayaz_hyder.html)</t>
   </si>
   <si>
-    <t>[Charlotte Ambrozek]((https://dataifa.github.io/difa-project/charlotte_ambrozek.html))</t>
-  </si>
-  <si>
     <t>[Evidence on WIC using administrative data linkage](https://www.youtube.com/watch?v=8Jw-jFjcFkE)</t>
+  </si>
+  <si>
+    <t>[Charlotte Ambrozek](https://dataifa.github.io/difa-project/charlotte_ambrozek.html)</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,10 +668,10 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
         <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">

--- a/docs/events.xlsx
+++ b/docs/events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thema\git\difa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F3EEF3-0DDF-4C0F-AF87-46D05BB4E5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6535818B-2E34-4690-9B5C-5FC9FD9475E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31005" yWindow="2025" windowWidth="24255" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -481,7 +481,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
